--- a/ExcelData/Data_Table/CharStat.xlsx
+++ b/ExcelData/Data_Table/CharStat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512B4569-CA5C-4E4B-AA64-60D97F03D1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8BFA01-2F78-4C8E-B1DD-F275141FF471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="CharStat_Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">CharStat_Table!$A$1:$X$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">CharStat_Table!$A$1:$Y$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,22 @@
   </si>
   <si>
     <t>직업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,9 +619,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,7 +634,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -643,6 +656,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:S8"/>
+  <dimension ref="B2:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:R7"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1527,50 +1543,52 @@
     <col min="7" max="8" width="5.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="7" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="7" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.875" style="17" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:20">
+      <c r="B2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="24"/>
-    </row>
-    <row r="3" spans="2:19">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="15" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="27"/>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -1582,23 +1600,26 @@
       <c r="J3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="25" t="s">
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="R3" s="27"/>
+      <c r="R3" s="26"/>
       <c r="S3" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="2:19">
+      <c r="T3" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
       <c r="B4" s="12" t="s">
         <v>46</v>
       </c>
@@ -1626,35 +1647,38 @@
       <c r="J4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="15" t="s">
         <v>78</v>
       </c>
       <c r="S4" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="2:19">
+      <c r="T4" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="12" t="s">
         <v>49</v>
       </c>
@@ -1671,46 +1695,49 @@
         <v>65</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="15" t="s">
         <v>65</v>
       </c>
       <c r="S5" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="2:19">
+      <c r="T5" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
       <c r="B6" s="6">
         <v>1</v>
       </c>
@@ -1738,35 +1765,38 @@
       <c r="J6" s="9">
         <v>10</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <v>100500</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <v>100200</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <v>100500</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="16">
         <v>0</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="16">
         <v>0</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="16">
         <v>0</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="16">
         <v>0</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="16">
         <v>0</v>
       </c>
       <c r="S6" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="2:19">
+      <c r="T6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
       <c r="B7" s="11">
         <v>2</v>
       </c>
@@ -1794,35 +1824,38 @@
       <c r="J7" s="9">
         <v>10</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>100500</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>100300</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>100600</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="16">
         <v>100700</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="16">
         <v>100900</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="16">
         <v>100600</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="16">
         <v>0</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>0</v>
       </c>
       <c r="S7" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="2:19">
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
       <c r="B8" s="6"/>
     </row>
   </sheetData>
@@ -1843,8 +1876,8 @@
     <brk id="7" max="21" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="1" max="6" man="1"/>
-    <brk id="19" max="6" man="1"/>
+    <brk id="2" max="9" man="1"/>
+    <brk id="20" max="6" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/ExcelData/Data_Table/CharStat.xlsx
+++ b/ExcelData/Data_Table/CharStat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16A8F25-6CB0-4E2B-BCF2-B6A610ABBAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E82E7-F015-4A6C-A9BA-DE55B8168CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="22530" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14955" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharStatTable" sheetId="2" r:id="rId1"/>
@@ -812,14 +812,14 @@
   <dimension ref="B2:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>

--- a/ExcelData/Data_Table/CharStat.xlsx
+++ b/ExcelData/Data_Table/CharStat.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E82E7-F015-4A6C-A9BA-DE55B8168CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7AC245-F191-4AEB-8488-16D2C417296F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14955" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CharStatTable" sheetId="2" r:id="rId1"/>
+    <sheet name="CharStat_Table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CharStatTable!$A$1:$Y$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CharStat_Table!$A$1:$X$10</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>번호</t>
   </si>
@@ -63,6 +63,10 @@
     <t>string</t>
   </si>
   <si>
+    <t>CharIndex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>시아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,26 +177,6 @@
   <si>
     <t>직업</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리팹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefeb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharStatIndex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -424,6 +408,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,13 +423,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,28 +793,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:T8"/>
+  <dimension ref="B2:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.875" style="14" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:19">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -844,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -859,30 +843,29 @@
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="14"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:19">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
+      <c r="F3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
@@ -890,17 +873,14 @@
       <c r="O3" s="22"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3" s="23"/>
       <c r="S3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:19">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -911,55 +891,52 @@
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="N4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="11" t="s">
+      <c r="P4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="R4" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="S4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:19">
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
@@ -973,60 +950,57 @@
         <v>7</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="8" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:19">
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4">
         <v>10001</v>
@@ -1046,46 +1020,43 @@
       <c r="J6" s="5">
         <v>10</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="13">
         <v>100500</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="13">
         <v>100200</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="13">
         <v>100500</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="13">
         <v>0</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="13">
         <v>0</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="13">
         <v>0</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="13">
         <v>0</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="13">
         <v>0</v>
       </c>
       <c r="S6" s="6">
         <v>50</v>
       </c>
-      <c r="T6" s="6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:19">
       <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4">
         <v>10002</v>
@@ -1105,38 +1076,35 @@
       <c r="J7" s="5">
         <v>10</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="13">
         <v>100500</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="13">
         <v>100300</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="13">
         <v>100600</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="13">
         <v>100700</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="13">
         <v>100900</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="13">
         <v>100600</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="13">
         <v>0</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="13">
         <v>0</v>
       </c>
       <c r="S7" s="6">
         <v>50</v>
       </c>
-      <c r="T7" s="6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:19">
       <c r="B8" s="2"/>
     </row>
   </sheetData>
@@ -1157,8 +1125,8 @@
     <brk id="7" max="21" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="2" max="9" man="1"/>
-    <brk id="20" max="6" man="1"/>
+    <brk id="1" max="6" man="1"/>
+    <brk id="19" max="6" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/ExcelData/Data_Table/CharStat.xlsx
+++ b/ExcelData/Data_Table/CharStat.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E82E7-F015-4A6C-A9BA-DE55B8168CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FED4EC4-B21B-4B80-ABA4-0E9AB1EF1397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="14955" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CharStatTable" sheetId="2" r:id="rId1"/>
+    <sheet name="CharStat_Table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CharStatTable!$A$1:$Y$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CharStat_Table!$A$1:$Y$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>

--- a/ExcelData/Data_Table/CharStat.xlsx
+++ b/ExcelData/Data_Table/CharStat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssy12\Desktop\팀 프로젝트\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FED4EC4-B21B-4B80-ABA4-0E9AB1EF1397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FB9C78-AEF6-45A3-B0E9-423BD136E02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="720" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharStat_Table" sheetId="2" r:id="rId1"/>
@@ -812,7 +812,7 @@
   <dimension ref="B2:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
